--- a/import-specification/devices/stringbox.xlsx
+++ b/import-specification/devices/stringbox.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Deray/GitLab/d.hsueh/import-specification/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E82D7F4A-76E9-6148-A21F-96F1462FA9BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="31780" yWindow="1960" windowWidth="23980" windowHeight="16560" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,233 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">Field Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference id for measurement data node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stringbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stringbox A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR11.22.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datapoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current value of string 1..x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average value of all string values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of all string values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_IN[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional analogue inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_IN[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional digital inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATE[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global strongbox state conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERROR[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global stringbox error conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC-Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC-Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams transmitted (communication quality)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams received (communication quality)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Name Attribute</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Reference id for measurement data node</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>device type</t>
+  </si>
+  <si>
+    <t>stringbox</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>device unique identifier</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>device name</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>device serial</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>device vendor</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>device model</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>device firmware</t>
+  </si>
+  <si>
+    <t>datapoints</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I_AVG</t>
+  </si>
+  <si>
+    <t>Average value of all string values</t>
+  </si>
+  <si>
+    <t>I_SUM</t>
+  </si>
+  <si>
+    <t>Sum of all string values</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperatures</t>
+  </si>
+  <si>
+    <t>Optional analogue inputs</t>
+  </si>
+  <si>
+    <t>Optional digital inputs</t>
+  </si>
+  <si>
+    <t>Global strongbox state conditions</t>
+  </si>
+  <si>
+    <t>Global stringbox error conditions</t>
+  </si>
+  <si>
+    <t>U_DC</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>DC-Voltage</t>
+  </si>
+  <si>
+    <t>P_DC</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>DC-Power</t>
+  </si>
+  <si>
+    <t>QS_TX</t>
+  </si>
+  <si>
+    <t>Telegrams transmitted (communication quality)</t>
+  </si>
+  <si>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>QS_RX</t>
+  </si>
+  <si>
+    <t>Telegrams received (communication quality)</t>
+  </si>
+  <si>
+    <t>&lt;device id=“1“ type=“stringbox“&gt;</t>
+  </si>
+  <si>
+    <t>&lt;uid&gt;STR12345&lt;/uid&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;Stringbox A&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;serial&gt;STR11.22.33&lt;/serial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;vendor&gt;vendor 123&lt;/vendor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>&lt;firmware&gt;1.23.3&lt;/firmware&gt;</t>
+  </si>
+  <si>
+    <t>I[1…x]</t>
+  </si>
+  <si>
+    <t>Current value of string 1…x (I without number is not allowed)</t>
+  </si>
+  <si>
+    <t>T[1…x]</t>
+  </si>
+  <si>
+    <t>A_IN[1…x]</t>
+  </si>
+  <si>
+    <t>D_IN[1…x]</t>
+  </si>
+  <si>
+    <t>STATE[1…x]</t>
+  </si>
+  <si>
+    <t>ERROR[1…x]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -266,7 +259,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -274,84 +267,354 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -399,13 +662,15 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -423,13 +688,15 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -446,133 +713,135 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -585,18 +854,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -607,18 +876,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -629,18 +898,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -651,16 +920,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -671,16 +940,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -691,16 +960,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -711,16 +980,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -731,18 +1000,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -753,18 +1022,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -775,16 +1044,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -792,19 +1061,19 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -812,14 +1081,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/import-specification/devices/stringbox.xlsx
+++ b/import-specification/devices/stringbox.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Field Type</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bus address</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;1&lt;/address&gt;</t>
   </si>
   <si>
     <t>firmware</t>
@@ -557,7 +566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,80 +760,83 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -832,7 +844,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -846,7 +858,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -860,46 +872,60 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
